--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
@@ -152,10 +152,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="dyg0jwsy" xfId="1"/>
-    <cellStyle name="dyg0jwsy_Alternate" xfId="2"/>
-    <cellStyle name="x0tzf1xi" xfId="3"/>
-    <cellStyle name="x0tzf1xi_Alternate" xfId="4"/>
+    <cellStyle name="usngo2rd" xfId="1"/>
+    <cellStyle name="usngo2rd_Alternate" xfId="2"/>
+    <cellStyle name="z03re34k" xfId="3"/>
+    <cellStyle name="z03re34k_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample06/Sample-06.xlsx
@@ -152,10 +152,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="usngo2rd" xfId="1"/>
-    <cellStyle name="usngo2rd_Alternate" xfId="2"/>
-    <cellStyle name="z03re34k" xfId="3"/>
-    <cellStyle name="z03re34k_Alternate" xfId="4"/>
+    <cellStyle name="plvdl5if" xfId="1"/>
+    <cellStyle name="plvdl5if_Alternate" xfId="2"/>
+    <cellStyle name="xk1tvnmg" xfId="3"/>
+    <cellStyle name="xk1tvnmg_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
